--- a/docs/odh/shr-core-Appointment-model.xlsx
+++ b/docs/odh/shr-core-Appointment-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$27</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="129">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Appointment-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Appointment-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-Appointment-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -218,10 +214,10 @@
     <t>http://hl7.org/fhir/ValueSet/service-category</t>
   </si>
   <si>
-    <t>shr-core-Appointment-model.serviceType</t>
-  </si>
-  <si>
-    <t>A service requested or to be performed during this appointment</t>
+    <t>shr-core-Appointment-model.serviceDetails</t>
+  </si>
+  <si>
+    <t>A service requested or performed. Additional details and instructions about the service requested or performed. For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
@@ -255,41 +251,97 @@
     <t>shr-core-Appointment-model.reasonCode</t>
   </si>
   <si>
-    <t>The justification, as a code.</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The explanation or justification for the current item or action, as a code.</t>
+  </si>
+  <si>
+    <t>The explanation or justification for the current item or action, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0566251
 </t>
   </si>
   <si>
-    <t>shr-core-Appointment-model.reasonReference[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+    <t>shr-core-Appointment-model.appointmentReasonReference[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model]]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
+    <t>Reason the appointment is to take place (resource)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.appointmentReasonReferenceShr-core-Condition-model</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model]]}
+</t>
+  </si>
+  <si>
+    <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.</t>
+  </si>
+  <si>
+    <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.
+The Observation-based class, ConditionAbsent, should be used to describe conditions that are not present or negative findings.
+SHR Condition uses the SHR BodyLocation structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.appointmentReasonReferenceShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure-model]]}
+</t>
+  </si>
+  <si>
+    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.appointmentReasonReferenceShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model]]}
+</t>
+  </si>
+  <si>
+    <t>Represents the result of evaluations (measurements, tests, or questions) that have been performed.</t>
+  </si>
+  <si>
+    <t>Represents the result of evaluations (measurements, tests, or questions) that have been performed.
+Observation has a value representing the result (answer), or an DataAbsentReason indicating why the value is not present. Things observed about the subject can include social and behavioral factors, subjective and objective observations, and assessments.
+For an Observation, the Code describes the aspect or property of the subject being observed or measured. The Code is the 'question code' that pairs to the 'answer' contained in the Value.</t>
   </si>
   <si>
     <t>shr-core-Appointment-model.indication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure-model]]}
 </t>
   </si>
   <si>
     <t>Conditions or situations where the procedure is recommended. In the Performed context, the actual indication should be reported.</t>
   </si>
   <si>
-    <t>shr-core-Appointment-model.priorityRankUnsignedInt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt {[]} {[]}
+    <t>shr-core-Appointment-model.priorityRank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt {[]} {[]}
 </t>
   </si>
   <si>
@@ -306,63 +358,61 @@
     <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0947611
+    <t>shr-core-Appointment-model.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions.</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Appointment-model.relatedInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+    <t>Additional information to support this request.</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.referralBasedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest-model]]}
 </t>
   </si>
   <si>
-    <t>Additional information to support referral or transfer of care request</t>
-  </si>
-  <si>
-    <t>shr-core-Appointment-model.referralRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
+    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.appointmentParticipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AppointmentParticipation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
-  </si>
-  <si>
-    <t>shr-core-Appointment-model.appointmentParticipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AppointmentParticipation-model {[]} {[]}
+    <t>Participants involved in appointment</t>
+  </si>
+  <si>
+    <t>shr-core-Appointment-model.timePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Participants involved in appointment</t>
-  </si>
-  <si>
-    <t>shr-core-Appointment-model.timePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A period of time defined by a start and end time, date, or year.</t>
   </si>
   <si>
     <t>A period of time defined by a start and end time, date, or year.
-If the start element is missing, the start of the period is not known. If the end element is missing, it means that the period is ongoing, or the start may be in the past, and the end date in the future, which means that period is expected/planned to end at the specified time. The end value includes any matching date/time. For example, the period 2011-05-23 to 2011-05-27 includes all the times from the start of the 23rd May through to the end of the 27th of May.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1948053
-</t>
+If the start date/time is missing, the start of the period is not known. If the end date/time is missing, it means that the period is ongoing.</t>
   </si>
   <si>
     <t>shr-core-Appointment-model.expectedPerformanceTime[x]</t>
   </si>
   <si>
     <t>dateTime {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing-model {[]} {[]}</t>
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Timing-model {[]} {[]}</t>
   </si>
   <si>
     <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
@@ -528,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -537,8 +587,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -547,7 +597,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -567,7 +617,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="57.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -940,7 +990,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -972,7 +1022,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -995,13 +1045,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1052,7 +1102,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1069,7 +1119,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1092,13 +1142,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1149,7 +1199,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1166,7 +1216,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1192,10 +1242,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1222,11 +1272,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1244,7 +1294,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1261,7 +1311,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1284,13 +1334,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1341,7 +1391,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1358,7 +1408,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1384,10 +1434,10 @@
         <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1414,11 +1464,11 @@
         <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>36</v>
@@ -1436,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1453,7 +1503,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1479,10 +1529,10 @@
         <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1509,11 +1559,11 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>36</v>
@@ -1531,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1548,7 +1598,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1574,10 +1624,10 @@
         <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1604,11 +1654,11 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>36</v>
@@ -1626,7 +1676,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1643,7 +1693,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1669,10 +1719,10 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1699,15 +1749,15 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
       </c>
@@ -1721,7 +1771,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1738,7 +1788,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1764,10 +1814,10 @@
         <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1803,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1818,7 +1868,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1835,7 +1885,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1858,13 +1908,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1903,19 +1953,17 @@
         <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -1932,18 +1980,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -1955,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2012,7 +2062,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2029,15 +2079,17 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -2052,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2109,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2126,15 +2178,17 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>41</v>
@@ -2149,13 +2203,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2191,7 +2245,7 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2206,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2223,7 +2277,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2246,13 +2300,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2303,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2320,7 +2374,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2331,7 +2385,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>36</v>
@@ -2343,13 +2397,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2400,13 +2454,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2417,7 +2471,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2425,10 +2479,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2440,13 +2494,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2497,13 +2551,13 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>36</v>
@@ -2514,7 +2568,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2537,13 +2591,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2579,7 +2633,7 @@
         <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -2594,7 +2648,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2611,7 +2665,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2634,13 +2688,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2691,7 +2745,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2708,7 +2762,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2719,7 +2773,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>36</v>
@@ -2731,13 +2785,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2773,7 +2827,7 @@
         <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -2788,23 +2842,411 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI23">
+  <autoFilter ref="A1:AI27">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2814,7 +3256,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI22">
+  <conditionalFormatting sqref="A2:AI26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
